--- a/QtExcel/shebei.xlsx
+++ b/QtExcel/shebei.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VistualStudioLearn\QTCPP\QtExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5721E72A-AA12-4441-B78A-9202B354E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687CF42-2921-47FA-9A42-25077FBE7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="5880" windowWidth="27550" windowHeight="13760" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7570" yWindow="2630" windowWidth="21900" windowHeight="16850" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="设备类申报表" sheetId="33" r:id="rId1"/>
+    <sheet name="shebei" sheetId="33" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
